--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9880"/>
+    <workbookView windowWidth="24060" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -82,7 +82,7 @@
     <t>/cgi-bin/token</t>
   </si>
   <si>
-    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
+    <t>{"grant_type":"client_credential","appid":"wxf26ad2ae7497289a","secret":"177931a321a1f39a47a1ef202d8a3497"}</t>
   </si>
   <si>
     <t>无</t>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>删除标签接口测试</t>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wxf26ad2ae7497289a","secret":"177931a321a1f39a47a1ef202d8a3497"}}</t>
   </si>
   <si>
     <t>jsonpath取值</t>
@@ -183,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,30 +201,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +238,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -241,6 +283,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -249,93 +321,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,73 +353,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,109 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +544,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,32 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,27 +622,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,8 +639,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,148 +649,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,54 +810,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1121,30 +1124,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.1071428571429" customWidth="1"/>
-    <col min="2" max="2" width="31.6964285714286" customWidth="1"/>
-    <col min="3" max="3" width="14.2767857142857" customWidth="1"/>
-    <col min="4" max="4" width="13.3839285714286" customWidth="1"/>
-    <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
-    <col min="6" max="7" width="15.4732142857143" customWidth="1"/>
-    <col min="8" max="8" width="18.1517857142857" customWidth="1"/>
-    <col min="9" max="9" width="36.0089285714286" customWidth="1"/>
-    <col min="10" max="10" width="43.9017857142857" customWidth="1"/>
-    <col min="11" max="11" width="16.8125" customWidth="1"/>
-    <col min="12" max="12" width="22.9107142857143" customWidth="1"/>
-    <col min="13" max="13" width="14.7321428571429" customWidth="1"/>
-    <col min="14" max="14" width="17.2589285714286" customWidth="1"/>
-    <col min="15" max="15" width="23.0625" customWidth="1"/>
+    <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="31.7" customWidth="1"/>
+    <col min="3" max="3" width="14.275" customWidth="1"/>
+    <col min="4" max="4" width="13.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.275" customWidth="1"/>
+    <col min="6" max="7" width="15.475" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="114.75" customWidth="1"/>
+    <col min="10" max="10" width="73.75" customWidth="1"/>
+    <col min="11" max="11" width="16.8166666666667" customWidth="1"/>
+    <col min="12" max="12" width="22.9083333333333" customWidth="1"/>
+    <col min="13" max="13" width="14.7333333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.2583333333333" customWidth="1"/>
+    <col min="15" max="15" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1325,13 +1328,13 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -1340,7 +1343,7 @@
         <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1363,16 +1366,16 @@
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -1383,22 +1386,22 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
@@ -1407,7 +1410,7 @@
         <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24060" windowHeight="10935"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -130,7 +130,7 @@
     <t>{"access_token":${token}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{   "tag" : {     "name" : "广东" } } </t>
+    <t xml:space="preserve">{"tag":{"name":"广东"}} </t>
   </si>
   <si>
     <t>json_key</t>
@@ -145,9 +145,6 @@
     <t>删除标签接口测试</t>
   </si>
   <si>
-    <t>{"grant_type":"client_credential","appid":"wxf26ad2ae7497289a","secret":"177931a321a1f39a47a1ef202d8a3497"}}</t>
-  </si>
-  <si>
     <t>jsonpath取值</t>
   </si>
   <si>
@@ -157,7 +154,7 @@
     <t>access_token</t>
   </si>
   <si>
-    <t xml:space="preserve">{   "tag" : {     "name" : "p3p4testddd" } } </t>
+    <t>{"tag":{"name":"p3p4testddd"}}</t>
   </si>
   <si>
     <t>"id":(.+?),</t>
@@ -175,7 +172,7 @@
     <t>/cgi-bin/tags/delete</t>
   </si>
   <si>
-    <t>{   "tag":{        "id" : ${tag_id}   } }</t>
+    <t>{"tag":{"id" : ${tag_id}}}</t>
   </si>
   <si>
     <t>{"errcode":0}</t>
@@ -186,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -214,9 +211,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +248,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -238,107 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,26 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,8 +577,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,21 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -652,145 +649,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1328,13 +1325,13 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -1343,7 +1340,7 @@
         <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1366,16 +1363,16 @@
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
         <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -1386,22 +1383,22 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
@@ -1410,7 +1407,7 @@
         <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="17565" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>body_regexp</t>
+    <t>none</t>
   </si>
   <si>
     <t>"access_token":"(.+?)"</t>
@@ -183,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -197,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -205,36 +213,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,53 +242,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,17 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,9 +311,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,17 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,11 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +588,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,30 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,145 +649,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,26 +1125,26 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
-    <col min="2" max="2" width="31.7" customWidth="1"/>
-    <col min="3" max="3" width="14.275" customWidth="1"/>
-    <col min="4" max="4" width="13.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="21.275" customWidth="1"/>
-    <col min="6" max="7" width="15.475" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="114.75" customWidth="1"/>
-    <col min="10" max="10" width="73.75" customWidth="1"/>
-    <col min="11" max="11" width="16.8166666666667" customWidth="1"/>
-    <col min="12" max="12" width="22.9083333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.7333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.2583333333333" customWidth="1"/>
-    <col min="15" max="15" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="119.375" customWidth="1"/>
+    <col min="10" max="10" width="33.75" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -88,7 +88,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>none</t>
+    <t>body_regexp</t>
   </si>
   <si>
     <t>"access_token":"(.+?)"</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -197,37 +197,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,12 +228,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -264,24 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +302,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,15 +326,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,21 +336,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,49 +350,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,133 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,15 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,17 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +612,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="12105"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -130,7 +130,7 @@
     <t>{"access_token":${token}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"tag":{"name":"广东"}} </t>
+    <t xml:space="preserve">{"tag":{"name":"dfgdfghdfg234"}} </t>
   </si>
   <si>
     <t>json_key</t>
@@ -154,10 +154,10 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>{"tag":{"name":"p3p4testddd"}}</t>
-  </si>
-  <si>
-    <t>"id":(.+?),</t>
+    <t>{"tag":{"name":"sdffgjfgjfg"}}</t>
+  </si>
+  <si>
+    <t>"id":(.+?)</t>
   </si>
   <si>
     <t>tag_id</t>
@@ -172,7 +172,7 @@
     <t>/cgi-bin/tags/delete</t>
   </si>
   <si>
-    <t>{"tag":{"id" : ${tag_id}}}</t>
+    <t>{"tag":{ "id":${tag_id}}}</t>
   </si>
   <si>
     <t>{"errcode":0}</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,12 +198,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -212,8 +273,61 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,120 +340,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,13 +350,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,37 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,19 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,103 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,66 +622,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,137 +661,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +803,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1126,7 +1129,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1144,7 +1147,7 @@
     <col min="12" max="12" width="24.875" customWidth="1"/>
     <col min="13" max="13" width="9.375" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="24.875" customWidth="1"/>
+    <col min="15" max="15" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1343,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1376,6 +1379,9 @@
       </c>
       <c r="N6" t="s">
         <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1406,7 +1412,7 @@
       <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1420,11 +1426,11 @@
     <mergeCell ref="C5:C7"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N7">
+      <formula1>"none,json_key,json_key_value,body_regexp,header_key,header_key_value,response_code"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
       <formula1>"无,jsonpath取值,正则取值"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N7">
-      <formula1>"none,json_key,json_key_value,body_regexp,header_key,header_key_value,response_code"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="18045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -130,7 +130,7 @@
     <t>{"access_token":${token}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"tag":{"name":"dfgdfghdfg234"}} </t>
+    <t xml:space="preserve">{"tag":{"name":"dfgdfg"}} </t>
   </si>
   <si>
     <t>json_key</t>
@@ -154,7 +154,7 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>{"tag":{"name":"sdffgjfgjfg"}}</t>
+    <t>{"tag":{"name":"555大苏打"}}</t>
   </si>
   <si>
     <t>"id":(.+?)</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,75 +198,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +235,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -311,9 +272,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,7 +296,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +350,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,19 +410,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,79 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,67 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,65 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,7 +563,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +597,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1313,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -1346,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1379,9 +1379,6 @@
       </c>
       <c r="N6" t="s">
         <v>39</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1426,11 +1423,11 @@
     <mergeCell ref="C5:C7"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
+      <formula1>"无,jsonpath取值,正则取值"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N7">
       <formula1>"none,json_key,json_key_value,body_regexp,header_key,header_key_value,response_code"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
-      <formula1>"无,jsonpath取值,正则取值"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>{"tag":{"name":"555大苏打"}}</t>
+    <t>{"tag":{"name":"fjfghjj"}}</t>
   </si>
   <si>
     <t>"id":(.+?)</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -197,6 +197,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -204,14 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -248,6 +255,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -255,34 +270,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,37 +327,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -350,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,26 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,41 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1423,11 +1423,11 @@
     <mergeCell ref="C5:C7"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N7">
+      <formula1>"none,json_key,json_key_value,body_regexp,header_key,header_key_value,response_code"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
       <formula1>"无,jsonpath取值,正则取值"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N7">
-      <formula1>"none,json_key,json_key_value,body_regexp,header_key,header_key_value,response_code"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -154,10 +154,10 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>{"tag":{"name":"fjfghjj"}}</t>
-  </si>
-  <si>
-    <t>"id":(.+?)</t>
+    <t>{"tag":{"name":"fj355f"}}</t>
+  </si>
+  <si>
+    <t>"id":(.+?),</t>
   </si>
   <si>
     <t>tag_id</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -197,30 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +228,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,6 +242,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,63 +265,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,6 +287,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -333,11 +317,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,9 +546,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,11 +566,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +588,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,21 +623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,15 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1346,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1379,6 +1379,9 @@
       </c>
       <c r="N6" t="s">
         <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1423,11 +1426,11 @@
     <mergeCell ref="C5:C7"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
+      <formula1>"无,jsonpath取值,正则取值"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N7">
       <formula1>"none,json_key,json_key_value,body_regexp,header_key,header_key_value,response_code"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
-      <formula1>"无,jsonpath取值,正则取值"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
